--- a/A - Assignment 3 WPS.xlsx
+++ b/A - Assignment 3 WPS.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Science\Assigments\Excel Assigments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6356832B-2817-44C8-A480-F4060C61B438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDB9599-B741-430E-A320-20BC0500967E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28692" yWindow="-1284" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="IF, AND OR combine" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$76:$I$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'IF, AND OR combine'!$B$209:$I$209</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="64">
   <si>
     <t>Exercise 01:</t>
   </si>
@@ -338,7 +338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +395,9 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,15 +789,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>164042</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>109008</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>62442</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -815,8 +818,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8105775" y="44596050"/>
-          <a:ext cx="7277100" cy="1704975"/>
+          <a:off x="8740775" y="39894934"/>
+          <a:ext cx="7463366" cy="1662641"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -871,6 +874,50 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>625383</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>83238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA39F0A-DE77-DF99-0FC3-C391A1FA2C79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10456333" y="49834800"/>
+          <a:ext cx="6264183" cy="3063505"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1138,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O78" sqref="O78"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K230" sqref="K230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3162,7 +3209,7 @@
         <v>10</v>
       </c>
       <c r="I53" s="11" t="b">
-        <f>IF(B53=E53,E53=B53)</f>
+        <f>AND(B53=E53)</f>
         <v>1</v>
       </c>
       <c r="J53" s="1"/>
@@ -3203,7 +3250,7 @@
         <v>11</v>
       </c>
       <c r="I54" s="11" t="b">
-        <f>IF(B54=E54,E54=B54)</f>
+        <f t="shared" ref="I54:I72" si="2">AND(B54=E54)</f>
         <v>0</v>
       </c>
       <c r="J54" s="1"/>
@@ -3244,7 +3291,7 @@
         <v>10</v>
       </c>
       <c r="I55" s="11" t="b">
-        <f>IF(B55=E55,E55=B55)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J55" s="1"/>
@@ -3285,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="I56" s="11" t="b">
-        <f t="shared" ref="I56:I72" si="2">IF(B56=E56,E56=B56)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J56" s="1"/>
@@ -4100,10 +4147,11 @@
         <v>1</v>
       </c>
       <c r="J77" s="1"/>
-      <c r="K77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1" t="b">
+        <f>IF((G77="Astro"),OR(C77="Laptop",C77="Mobile Phone"))</f>
+        <v>1</v>
+      </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -4143,9 +4191,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="1"/>
-      <c r="K78" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -5921,7 +5967,10 @@
       <c r="H123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I123" s="13"/>
+      <c r="I123" s="13">
+        <f>IF(D123&lt;=$B$145,$C$145,IF(D123&lt;=$B$146,$C$146,IF(D123&lt;=$B$147,$C$147,IF(D123&lt;=$B$148,$C$148))))</f>
+        <v>0.15</v>
+      </c>
       <c r="J123" s="14"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -5959,11 +6008,14 @@
       <c r="H124" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I124" s="13"/>
+      <c r="I124" s="13">
+        <f t="shared" ref="I124:I142" si="5">IF(D124&lt;=$B$145,$C$145,IF(D124&lt;=$B$146,$C$146,IF(D124&lt;=$B$147,$C$147,IF(D124&lt;=$B$148,$C$148))))</f>
+        <v>0.15</v>
+      </c>
       <c r="J124" s="14"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
+      <c r="M124" s="19"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
@@ -5997,11 +6049,14 @@
       <c r="H125" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I125" s="13"/>
+      <c r="I125" s="13">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
       <c r="J125" s="14"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
+      <c r="M125" s="19"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
@@ -6035,7 +6090,10 @@
       <c r="H126" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I126" s="13"/>
+      <c r="I126" s="13">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
       <c r="J126" s="14"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -6073,7 +6131,10 @@
       <c r="H127" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I127" s="13"/>
+      <c r="I127" s="13">
+        <f>IF(D127&lt;=$B$145,$C$145,IF(D127&lt;=$B$146,$C$146,IF(D127&lt;=$B$147,$C$147,IF(D127&gt;=$B$148,$C$148))))</f>
+        <v>0.15</v>
+      </c>
       <c r="J127" s="14"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
@@ -6111,7 +6172,10 @@
       <c r="H128" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I128" s="13"/>
+      <c r="I128" s="13">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
       <c r="J128" s="14"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -6149,7 +6213,10 @@
       <c r="H129" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I129" s="13"/>
+      <c r="I129" s="13">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
       <c r="J129" s="14"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -6187,7 +6254,10 @@
       <c r="H130" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I130" s="13"/>
+      <c r="I130" s="13">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
       <c r="J130" s="14"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -6225,7 +6295,10 @@
       <c r="H131" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I131" s="13"/>
+      <c r="I131" s="13">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
       <c r="J131" s="14"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -6263,7 +6336,10 @@
       <c r="H132" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I132" s="13"/>
+      <c r="I132" s="13">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="J132" s="14"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -6301,7 +6377,10 @@
       <c r="H133" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I133" s="13"/>
+      <c r="I133" s="13">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
       <c r="J133" s="14"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -6339,7 +6418,10 @@
       <c r="H134" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I134" s="13"/>
+      <c r="I134" s="13">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
       <c r="J134" s="14"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -6377,7 +6459,10 @@
       <c r="H135" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I135" s="13"/>
+      <c r="I135" s="13">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
       <c r="J135" s="14"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
@@ -6415,7 +6500,10 @@
       <c r="H136" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I136" s="13"/>
+      <c r="I136" s="13">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
       <c r="J136" s="14"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -6453,7 +6541,10 @@
       <c r="H137" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I137" s="13"/>
+      <c r="I137" s="13">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
       <c r="J137" s="14"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -6491,7 +6582,10 @@
       <c r="H138" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I138" s="13"/>
+      <c r="I138" s="13">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
       <c r="J138" s="14"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -6529,7 +6623,10 @@
       <c r="H139" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I139" s="13"/>
+      <c r="I139" s="13">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
       <c r="J139" s="14"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -6567,7 +6664,10 @@
       <c r="H140" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I140" s="13"/>
+      <c r="I140" s="13">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
       <c r="J140" s="14"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -6605,7 +6705,10 @@
       <c r="H141" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I141" s="13"/>
+      <c r="I141" s="13">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
       <c r="J141" s="14"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -6643,7 +6746,10 @@
       <c r="H142" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I142" s="13"/>
+      <c r="I142" s="13">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
       <c r="J142" s="14"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -8963,17 +9069,26 @@
       <c r="H210" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I210" s="13"/>
+      <c r="I210" s="13" t="str">
+        <f>IF(AND(D210&gt;$S$210,OR(B210=E210,C210=$R$210)),"Yes","No")</f>
+        <v>Yes</v>
+      </c>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
-      <c r="L210" s="1"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
+      <c r="O210" s="13" t="str">
+        <f>IF(AND(D210&gt;2000,B210=E210,OR(C210="Laptop")),"Yes","No")</f>
+        <v>Yes</v>
+      </c>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
-      <c r="R210" s="1"/>
-      <c r="S210" s="1"/>
+      <c r="R210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S210" s="1">
+        <v>2000</v>
+      </c>
       <c r="T210" s="1"/>
       <c r="U210" s="1"/>
       <c r="V210" s="1"/>
@@ -9001,9 +9116,11 @@
       <c r="H211" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I211" s="13"/>
+      <c r="I211" s="13" t="str">
+        <f t="shared" ref="I211:I229" si="6">IF(AND(D211&gt;$S$210,OR(B211=E211,C211=$R$210)),"Yes","No")</f>
+        <v>No</v>
+      </c>
       <c r="J211" s="1"/>
-      <c r="K211" s="1"/>
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
@@ -9039,7 +9156,10 @@
       <c r="H212" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I212" s="13"/>
+      <c r="I212" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
@@ -9077,7 +9197,10 @@
       <c r="H213" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I213" s="13"/>
+      <c r="I213" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
@@ -9115,7 +9238,10 @@
       <c r="H214" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I214" s="13"/>
+      <c r="I214" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
@@ -9153,7 +9279,10 @@
       <c r="H215" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I215" s="13"/>
+      <c r="I215" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
@@ -9191,7 +9320,10 @@
       <c r="H216" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I216" s="13"/>
+      <c r="I216" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
@@ -9229,7 +9361,10 @@
       <c r="H217" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I217" s="13"/>
+      <c r="I217" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
@@ -9267,7 +9402,10 @@
       <c r="H218" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I218" s="13"/>
+      <c r="I218" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
@@ -9305,7 +9443,10 @@
       <c r="H219" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I219" s="13"/>
+      <c r="I219" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
@@ -9343,7 +9484,10 @@
       <c r="H220" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I220" s="13"/>
+      <c r="I220" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
@@ -9381,7 +9525,10 @@
       <c r="H221" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I221" s="13"/>
+      <c r="I221" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
@@ -9419,7 +9566,10 @@
       <c r="H222" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I222" s="13"/>
+      <c r="I222" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
@@ -9457,7 +9607,10 @@
       <c r="H223" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I223" s="13"/>
+      <c r="I223" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
@@ -9495,7 +9648,10 @@
       <c r="H224" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I224" s="13"/>
+      <c r="I224" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
@@ -9533,7 +9689,10 @@
       <c r="H225" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I225" s="13"/>
+      <c r="I225" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
@@ -9571,7 +9730,10 @@
       <c r="H226" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I226" s="13"/>
+      <c r="I226" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
@@ -9609,7 +9771,10 @@
       <c r="H227" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I227" s="13"/>
+      <c r="I227" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
@@ -9647,7 +9812,10 @@
       <c r="H228" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I228" s="13"/>
+      <c r="I228" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
@@ -9685,7 +9853,10 @@
       <c r="H229" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I229" s="13"/>
+      <c r="I229" s="13" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
@@ -9701,8 +9872,11 @@
       <c r="V229" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B76:I96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B209:I209" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="I127" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>